--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -4,26 +4,28 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="4" sheetId="4" r:id="rId4"/>
-    <sheet name="5" sheetId="5" r:id="rId5"/>
-    <sheet name="6" sheetId="6" r:id="rId6"/>
-    <sheet name="7" sheetId="7" r:id="rId7"/>
-    <sheet name="8" sheetId="12" r:id="rId8"/>
-    <sheet name="9" sheetId="13" r:id="rId9"/>
-    <sheet name="10" sheetId="14" r:id="rId10"/>
+    <sheet name="前提" sheetId="15" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name=" (19)" sheetId="17" r:id="rId4"/>
+    <sheet name="20" sheetId="19" r:id="rId5"/>
+    <sheet name="4" sheetId="4" r:id="rId6"/>
+    <sheet name="5" sheetId="5" r:id="rId7"/>
+    <sheet name="6" sheetId="6" r:id="rId8"/>
+    <sheet name="7" sheetId="7" r:id="rId9"/>
+    <sheet name="8" sheetId="12" r:id="rId10"/>
+    <sheet name="9" sheetId="13" r:id="rId11"/>
+    <sheet name="10" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>加入者編集ページ</t>
   </si>
@@ -46,12 +48,415 @@
     <t>!2023/8/23</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>元の条件選択が反映される前のデータベース</t>
+    <rPh sb="0" eb="1">
+      <t>モト</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ジョウケンセンタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンエイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>項目を</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>一覧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で選択できる</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>プルダウン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を適当な枠のサイズで表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>加入者検索名の下に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示順</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の文字を表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>料金検索名の下に</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>表示順</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の文字を表示</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>検索</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を指定する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プルダウン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を適当な枠のサイズで表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索結果画面で表示する項目の列名が縦に選択できる形で表示</t>
+  </si>
+  <si>
+    <t>検索結果画面で表示する際の条件が昇順と降順が縦に選択できる形で表示</t>
+  </si>
+  <si>
+    <r>
+      <t>検索結果画面で表示する</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>項目の列名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が縦に選択できる形で表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>検索結果画面で表示する際の</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>条件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>が昇順と降順が縦に選択できる形で表示</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未入力状態で検索する際の表示順が、加入者ID・昇順の時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「加入者ID」を選択</t>
+    <rPh sb="1" eb="4">
+      <t>カニュウシャ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！1-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！1-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！1-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順①</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順②</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順③</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順②1-5</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順①1-4</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順②1-5</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「昇順」を選択</t>
+    <rPh sb="1" eb="3">
+      <t>ショウジュン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「料金ID」を選択</t>
+    <rPh sb="1" eb="3">
+      <t>リョウキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>加入者ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数字が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小さい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>順にレコードが表示される</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>料金ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の数字が</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小さい</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ 明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>順にレコードが表示される</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +525,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="5"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -153,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
@@ -168,6 +623,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -179,9 +637,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -204,6 +659,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="56" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -225,20 +706,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>145159</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>64329</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>544052</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -251,14 +732,2526 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="672353"/>
-          <a:ext cx="8649906" cy="3258005"/>
+          <a:off x="10410825" y="866775"/>
+          <a:ext cx="8078327" cy="4553585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268093</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="866775"/>
+          <a:ext cx="9983593" cy="4553585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>145159</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect b="2223"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="8691368" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>151279</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="3126441"/>
+          <a:ext cx="593911" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4202</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="572060" y="3610535"/>
+          <a:ext cx="712134" cy="505946"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99489"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1680882" y="3121959"/>
+          <a:ext cx="784412" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1680882" y="3121959"/>
+          <a:ext cx="784413" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>229720</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1680882" y="3121959"/>
+          <a:ext cx="784413" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>93008</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>73959</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2505634" y="3121959"/>
+          <a:ext cx="508748" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151278</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>96371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3052201" y="2204477"/>
+          <a:ext cx="1027579" cy="2983567"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -22246"/>
+            <a:gd name="adj2" fmla="val 78338"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="カギ線コネクタ 33"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3022226" y="3342715"/>
+          <a:ext cx="2026024" cy="1381685"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 47649"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5426</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>19699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="738"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5076265"/>
+          <a:ext cx="9468617" cy="4524463"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5426</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>19699</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6172200"/>
+          <a:ext cx="9516803" cy="4648849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1682</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1773893" y="7621121"/>
+          <a:ext cx="949136" cy="1623732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657228</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>95253</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="カギ線コネクタ 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2143126" y="5238751"/>
+          <a:ext cx="781052" cy="590552"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 98780"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>208989</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>68356</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>208990</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2737597" y="12843062"/>
+          <a:ext cx="549089" cy="783291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>70596</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>16246</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>89649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2420749" y="14220542"/>
+          <a:ext cx="1586197" cy="407899"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100865"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518479</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="672353"/>
+          <a:ext cx="9516803" cy="4648849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209659</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2958353" y="5771030"/>
+          <a:ext cx="781159" cy="1152686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68037</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487196</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>53996</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5648566" y="5762224"/>
+          <a:ext cx="419159" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1815353" y="3328147"/>
+          <a:ext cx="885264" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2756647" y="3328147"/>
+          <a:ext cx="537882" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>112062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1574425" y="4409514"/>
+          <a:ext cx="1938624" cy="560296"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100289"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437028</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="カギ線コネクタ 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3283322" y="3518647"/>
+          <a:ext cx="2218766" cy="2117912"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549696</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>49635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7783286"/>
+          <a:ext cx="9516803" cy="4648849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>394608</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>477051</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>86445</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="394608" y="9701893"/>
+          <a:ext cx="885264" cy="1882588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>614724</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>118463</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="カギ線コネクタ 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="588308" y="11848619"/>
+          <a:ext cx="1098178" cy="560296"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>52940</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60943</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="672353"/>
+          <a:ext cx="7916380" cy="3086531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>117662</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="235324" y="2947147"/>
+          <a:ext cx="593911" cy="313765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>265774</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="カギ線コネクタ 3"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="407066" y="3496480"/>
+          <a:ext cx="934960" cy="685994"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99609"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>268941</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457739" y="3014870"/>
+          <a:ext cx="860904" cy="379538"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37270</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2410237" y="3014870"/>
+          <a:ext cx="513523" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>53714</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>57980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273327</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99395</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2952628" y="1950433"/>
+          <a:ext cx="1085024" cy="3213899"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -21069"/>
+            <a:gd name="adj2" fmla="val 80407"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>14615</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>58368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>265043</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2919860" y="3189194"/>
+          <a:ext cx="2165662" cy="1415936"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21114</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>42548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5289177"/>
+          <a:ext cx="9548179" cy="3840221"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21114</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>64959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="9548179" cy="3836859"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5603</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1781736" y="7116857"/>
+          <a:ext cx="918881" cy="1287555"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>234765</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>16809</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="カギ線コネクタ 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2240059" y="8404414"/>
+          <a:ext cx="662265" cy="571498"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -761"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>201705</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>45945</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2723029" y="11475945"/>
+          <a:ext cx="549089" cy="783291"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>150716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="カギ線コネクタ 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2650470" y="12601293"/>
+          <a:ext cx="1104345" cy="407897"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 99721"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518479</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109782</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1221441"/>
+          <a:ext cx="9516803" cy="3762900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1822077" y="3392021"/>
+          <a:ext cx="887505" cy="391085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2765612" y="3392021"/>
+          <a:ext cx="540123" cy="391085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>100854</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661150</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>112062</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="カギ線コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1564900" y="4501963"/>
+          <a:ext cx="1975603" cy="560296"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100289"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>437028</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3294528" y="3585882"/>
+          <a:ext cx="2225489" cy="2161615"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>145782</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>44380</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913529" y="5266765"/>
+          <a:ext cx="762106" cy="828791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>475187</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>51596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5636558" y="5255560"/>
+          <a:ext cx="419158" cy="342948"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>518479</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>110467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6387353"/>
+          <a:ext cx="9516803" cy="4648849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381001" y="8325971"/>
+          <a:ext cx="885264" cy="1882588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>123267</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>593913</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>44827</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="カギ線コネクタ 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="560294" y="10477502"/>
+          <a:ext cx="1098178" cy="560296"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -551,54 +3544,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:M3"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.375" customWidth="1"/>
-    <col min="2" max="52" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="8"/>
+    <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="Q5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:D4"/>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="B3:F3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,484 +3607,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L33"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="B3:G4"/>
-    <mergeCell ref="A31:D31"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="B4:C4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I105"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-      <c r="H84" s="15"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
-      <c r="H88" s="15"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
-      <c r="H89" s="15"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B3:I4"/>
-    <mergeCell ref="B88:H89"/>
-    <mergeCell ref="B83:H84"/>
-    <mergeCell ref="B56:D57"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B3:J3"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:K4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B2:G3"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A31:D31"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1102,13 +3623,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="19" t="s">
@@ -1126,7 +3647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I104"/>
   <sheetViews>
@@ -1252,10 +3773,915 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P93"/>
+  <sheetViews>
+    <sheetView showFormulas="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90:H90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="52" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C25" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J27" s="30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E59" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="31"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E60" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="27"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="27"/>
+      <c r="M60" s="27"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="F90" s="24"/>
+      <c r="G90" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="H90" s="31"/>
+    </row>
+    <row r="91" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="G91" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="27"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="27"/>
+      <c r="M91" s="27"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="27"/>
+    </row>
+    <row r="93" spans="6:15" x14ac:dyDescent="0.15">
+      <c r="G93" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G91:O91"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="E60:M60"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="J25:P25"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L73"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F78" sqref="F78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="F35" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B37" s="25"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C72" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C73" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P80"/>
+  <sheetViews>
+    <sheetView showFormulas="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:H79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="52" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="C25" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="J25" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="J26" s="24"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J27" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="J28" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E53" s="24"/>
+      <c r="F53" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G53" s="31"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="E58" s="24"/>
+    </row>
+    <row r="79" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="F79" s="24"/>
+      <c r="G79" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H79" s="31"/>
+    </row>
+    <row r="80" spans="6:14" x14ac:dyDescent="0.15">
+      <c r="G80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="G80:N80"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="F54:L54"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="30" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="E31" t="s">
+        <v>28</v>
+      </c>
+      <c r="I31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" x14ac:dyDescent="0.15">
+      <c r="F32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="25"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C67" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C68" s="33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I105"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+    </row>
+    <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="6"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="15"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="B88:H89"/>
+    <mergeCell ref="B83:H84"/>
+    <mergeCell ref="B56:D57"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="20"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1417,26 +4843,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1460,9 +4875,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="14" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="99">
   <si>
     <t>加入者編集ページ</t>
   </si>
@@ -340,13 +340,6 @@
   </si>
   <si>
     <t>手順③</t>
-    <rPh sb="0" eb="2">
-      <t>テジュン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>手順②1-5</t>
     <rPh sb="0" eb="2">
       <t>テジュン</t>
     </rPh>
@@ -1320,6 +1313,32 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>！19-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！19-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>！19-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順①19-4</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手順②19-5</t>
+    <rPh sb="0" eb="2">
+      <t>テジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -18674,7 +18693,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -18705,7 +18724,7 @@
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -18730,7 +18749,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.15">
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
@@ -18810,12 +18829,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -18843,10 +18862,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -18874,7 +18893,7 @@
     <row r="73" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -18909,7 +18928,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -18937,10 +18956,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -18973,7 +18992,7 @@
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G73" s="17"/>
     </row>
@@ -19001,12 +19020,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19034,10 +19053,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -19072,7 +19091,7 @@
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
@@ -19106,12 +19125,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19139,10 +19158,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -19185,7 +19204,7 @@
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H73" s="38"/>
       <c r="I73" s="38"/>
@@ -19219,12 +19238,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19252,10 +19271,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -19302,7 +19321,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
@@ -19334,12 +19353,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19367,10 +19386,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -19414,7 +19433,7 @@
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
@@ -19447,12 +19466,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19483,13 +19502,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="30"/>
     </row>
@@ -19518,14 +19537,14 @@
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E71" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F72" s="39"/>
       <c r="G72" s="39"/>
@@ -19536,7 +19555,7 @@
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C73" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
@@ -19554,7 +19573,7 @@
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C74" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="3:16" x14ac:dyDescent="0.15">
@@ -19588,12 +19607,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19624,13 +19643,13 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M34" s="30"/>
     </row>
@@ -19659,12 +19678,12 @@
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E66" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E67" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F67" s="22"/>
       <c r="G67" s="22"/>
@@ -19674,7 +19693,7 @@
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E68" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -19745,12 +19764,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -19782,14 +19801,14 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
@@ -19803,7 +19822,7 @@
         <v>15</v>
       </c>
       <c r="L36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.15">
@@ -19812,7 +19831,7 @@
         <v>15</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.15">
@@ -19823,12 +19842,12 @@
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E67" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E68" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F68" s="22"/>
       <c r="G68" s="22"/>
@@ -19845,12 +19864,12 @@
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C70" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C71" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E71" s="18"/>
     </row>
@@ -19905,7 +19924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P93"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showFormulas="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S86" sqref="S86"/>
     </sheetView>
   </sheetViews>
@@ -20027,7 +20046,7 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E59" s="31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F59" s="31"/>
     </row>
@@ -20052,7 +20071,7 @@
     <row r="90" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F90" s="11"/>
       <c r="G90" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H90" s="31"/>
     </row>
@@ -20096,8 +20115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79:H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20140,10 +20159,10 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
       <c r="C24" s="13" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="J24" s="11" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
@@ -20176,7 +20195,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
       <c r="J27" s="11" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
@@ -20193,7 +20212,7 @@
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E53" s="11"/>
       <c r="F53" s="31" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="G53" s="31"/>
     </row>
@@ -20239,7 +20258,7 @@
     <row r="79" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F79" s="11"/>
       <c r="G79" s="31" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="H79" s="31"/>
     </row>
@@ -20320,10 +20339,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20345,7 +20364,7 @@
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -20379,7 +20398,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20404,10 +20423,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20434,7 +20453,7 @@
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C68" s="16"/>
       <c r="E68" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -20466,7 +20485,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20491,10 +20510,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20524,7 +20543,7 @@
       <c r="C68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -20555,7 +20574,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20580,10 +20599,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20615,7 +20634,7 @@
       <c r="C68" s="16"/>
       <c r="E68" s="16"/>
       <c r="H68" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -20646,7 +20665,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20671,10 +20690,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20706,7 +20725,7 @@
       <c r="C68" s="16"/>
       <c r="E68" s="16"/>
       <c r="K68" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -20737,7 +20756,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20762,10 +20781,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20790,7 +20809,7 @@
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -20821,7 +20840,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20846,10 +20865,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20877,7 +20896,7 @@
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C68" s="16"/>
       <c r="E68" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -20908,7 +20927,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -20933,10 +20952,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -20967,7 +20986,7 @@
       <c r="C68" s="16"/>
       <c r="E68" s="16"/>
       <c r="F68" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -20998,7 +21017,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21023,10 +21042,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -21059,7 +21078,7 @@
       <c r="C68" s="16"/>
       <c r="E68" s="16"/>
       <c r="H68" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -21124,7 +21143,7 @@
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -21146,7 +21165,7 @@
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -21178,7 +21197,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21203,10 +21222,10 @@
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.15">
@@ -21239,7 +21258,7 @@
       <c r="C68" s="16"/>
       <c r="E68" s="16"/>
       <c r="K68" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -21265,12 +21284,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21301,13 +21320,13 @@
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L32" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M32" s="30"/>
     </row>
@@ -21336,17 +21355,17 @@
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E64" s="18"/>
     </row>
@@ -21390,12 +21409,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21423,10 +21442,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -21453,7 +21472,7 @@
     <row r="73" spans="3:7" x14ac:dyDescent="0.15">
       <c r="C73" s="17"/>
       <c r="D73" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
@@ -21491,7 +21510,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21519,10 +21538,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -21555,7 +21574,7 @@
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" s="17"/>
     </row>
@@ -21641,12 +21660,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21674,10 +21693,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -21710,7 +21729,7 @@
       <c r="D73" s="17"/>
       <c r="E73" s="17"/>
       <c r="F73" s="36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G73" s="36"/>
       <c r="H73" s="36"/>
@@ -21747,12 +21766,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21780,10 +21799,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -21825,7 +21844,7 @@
       <c r="E73" s="17"/>
       <c r="F73" s="17"/>
       <c r="G73" s="36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H73" s="36"/>
       <c r="I73" s="36"/>
@@ -21862,12 +21881,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -21895,10 +21914,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -21944,7 +21963,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
       <c r="J73" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
@@ -21980,12 +21999,12 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -22013,10 +22032,10 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.15">
@@ -22059,7 +22078,7 @@
       <c r="J73" s="36"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M73" s="36"/>
       <c r="N73" s="36"/>
@@ -22082,12 +22101,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22249,15 +22265,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22281,17 +22308,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="前提" sheetId="15" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
   <si>
     <t>加入者編集ページ</t>
   </si>
@@ -1589,6 +1589,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="56" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1634,9 +1637,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="56" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1658,20 +1658,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>544052</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68405</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>68976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1684,8 +1684,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10410825" y="866775"/>
-          <a:ext cx="8078327" cy="4553585"/>
+          <a:off x="0" y="7563971"/>
+          <a:ext cx="8383170" cy="4439270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,20 +1696,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>268093</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>105410</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>202876</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>17487</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1722,8 +1722,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="866775"/>
-          <a:ext cx="9983593" cy="4553585"/>
+          <a:off x="10387853" y="7597588"/>
+          <a:ext cx="8383170" cy="4858428"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1735,19 +1735,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>218884</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>83621</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>544052</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="2" name="図 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1760,8 +1760,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10327821" y="7878537"/>
-          <a:ext cx="8383170" cy="4410691"/>
+          <a:off x="10410825" y="866775"/>
+          <a:ext cx="8078327" cy="4553585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1774,18 +1774,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>27215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>96420</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>15585</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268093</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1798,8 +1798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7810501"/>
-          <a:ext cx="8383170" cy="4410691"/>
+          <a:off x="0" y="866775"/>
+          <a:ext cx="9983593" cy="4553585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1811,15 +1811,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>73269</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>146538</xdr:rowOff>
+      <xdr:colOff>50857</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>135333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>154082</xdr:rowOff>
+      <xdr:colOff>72837</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1828,8 +1828,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1560634" y="10763250"/>
-          <a:ext cx="6220557" cy="176063"/>
+          <a:off x="1530033" y="11061068"/>
+          <a:ext cx="6174010" cy="324108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1871,15 +1871,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>183173</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>73269</xdr:rowOff>
+      <xdr:colOff>194379</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>659424</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
+      <xdr:colOff>670630</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>122834</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1888,8 +1888,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12001500" y="10858500"/>
-          <a:ext cx="4608636" cy="285750"/>
+          <a:off x="11926938" y="11116235"/>
+          <a:ext cx="4577604" cy="604687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6551,19 +6551,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>172620</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>19666</xdr:rowOff>
+      <xdr:colOff>153570</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>86217</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="18" name="図 17"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6576,8 +6576,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="752475"/>
-          <a:ext cx="8383170" cy="4410691"/>
+          <a:off x="0" y="7191375"/>
+          <a:ext cx="8383170" cy="3524742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6589,19 +6589,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>315495</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>10141</xdr:rowOff>
+      <xdr:colOff>172620</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19666</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6614,7 +6614,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="161925" y="7086600"/>
+          <a:off x="19050" y="752475"/>
           <a:ext cx="8383170" cy="4410691"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6851,15 +6851,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6868,8 +6868,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2447925" y="9020175"/>
-          <a:ext cx="457200" cy="866775"/>
+          <a:off x="2400300" y="9115426"/>
+          <a:ext cx="457200" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6911,15 +6911,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>505629</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>112300</xdr:rowOff>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>123828</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>104777</xdr:rowOff>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6928,12 +6928,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2032990" y="10414989"/>
-          <a:ext cx="1364077" cy="303999"/>
+          <a:off x="2185988" y="10567986"/>
+          <a:ext cx="981077" cy="381003"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 100276"/>
+            <a:gd name="adj1" fmla="val 100485"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln w="19050">
@@ -7156,19 +7156,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>210720</xdr:colOff>
+      <xdr:colOff>146957</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>519537</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>105271</xdr:rowOff>
+      <xdr:rowOff>95742</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="15" name="図 14"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7181,8 +7181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="7181850"/>
-          <a:ext cx="8383170" cy="3553321"/>
+          <a:off x="146957" y="7315200"/>
+          <a:ext cx="7916380" cy="3579171"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7757,14 +7757,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>635453</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>568778</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -7775,8 +7775,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1533525" y="9734550"/>
-          <a:ext cx="619125" cy="200025"/>
+          <a:off x="1321253" y="9886950"/>
+          <a:ext cx="619125" cy="202746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8033,13 +8033,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>327361</xdr:colOff>
+      <xdr:colOff>370904</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>103547</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>585849</xdr:colOff>
+      <xdr:colOff>629392</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>166937</xdr:rowOff>
     </xdr:to>
@@ -8050,8 +8050,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2387769" y="9648600"/>
-          <a:ext cx="258488" cy="233837"/>
+          <a:off x="2428304" y="9857147"/>
+          <a:ext cx="258488" cy="237561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8093,13 +8093,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
+      <xdr:colOff>115661</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>48986</xdr:colOff>
       <xdr:row>56</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -8110,8 +8110,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1476375" y="9429750"/>
-          <a:ext cx="619125" cy="200025"/>
+          <a:off x="1487261" y="9579429"/>
+          <a:ext cx="619125" cy="202746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8204,15 +8204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>329000</xdr:colOff>
+      <xdr:colOff>372542</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>130253</xdr:rowOff>
+      <xdr:rowOff>135696</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>587488</xdr:colOff>
+      <xdr:colOff>631030</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>23195</xdr:rowOff>
+      <xdr:rowOff>28638</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8221,8 +8221,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2391976" y="9413643"/>
-          <a:ext cx="258488" cy="236772"/>
+          <a:off x="2429942" y="9540953"/>
+          <a:ext cx="258488" cy="241285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15196,19 +15196,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>100852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>180464</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>124320</xdr:rowOff>
+      <xdr:colOff>256443</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>139210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>596785</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -15221,8 +15221,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6488205"/>
-          <a:ext cx="8383170" cy="3553321"/>
+          <a:off x="256443" y="6374422"/>
+          <a:ext cx="7916380" cy="3524742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15497,8 +15497,8 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>102577</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>14653</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
@@ -15513,8 +15513,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1480039" y="8440615"/>
-          <a:ext cx="556846" cy="1011116"/>
+          <a:off x="1480039" y="8257442"/>
+          <a:ext cx="556846" cy="1194289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19043,8 +19043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I44" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W74" sqref="W74"/>
+    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19061,13 +19061,13 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:18" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -19079,16 +19079,16 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24"/>
+      <c r="C5" s="27"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="R5" s="25"/>
+      <c r="R5" s="28"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
@@ -19099,14 +19099,14 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="P44" s="25" t="s">
+      <c r="C44" s="27"/>
+      <c r="P44" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Q44" s="25"/>
+      <c r="Q44" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19142,24 +19142,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19203,50 +19203,50 @@
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="34"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="37"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B87" s="34"/>
-      <c r="C87" s="34"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="34"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B103" s="36"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="36"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B104" s="36"/>
-      <c r="C104" s="36"/>
-      <c r="D104" s="36"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -19283,24 +19283,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19377,24 +19377,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19474,24 +19474,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19540,14 +19540,14 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35" t="s">
+      <c r="F73" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
       <c r="L73" s="16"/>
     </row>
   </sheetData>
@@ -19579,24 +19579,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19653,13 +19653,13 @@
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
+      <c r="H73" s="40"/>
+      <c r="I73" s="40"/>
+      <c r="J73" s="40"/>
+      <c r="K73" s="40"/>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
     </row>
@@ -19692,24 +19692,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19770,13 +19770,13 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="35" t="s">
+      <c r="J73" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -19807,24 +19807,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19876,19 +19876,19 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35" t="s">
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -19908,7 +19908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F73" sqref="F73:K73"/>
     </sheetView>
   </sheetViews>
@@ -19920,24 +19920,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -19957,10 +19957,10 @@
       <c r="I34" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="29"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F35" s="8"/>
@@ -19993,13 +19993,13 @@
     <row r="72" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="38" t="s">
+      <c r="E72" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
       <c r="J72" s="21"/>
       <c r="L72" s="17"/>
     </row>
@@ -20009,17 +20009,17 @@
       </c>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C74" s="20" t="s">
@@ -20049,8 +20049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20061,24 +20061,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -20098,10 +20098,10 @@
       <c r="I34" t="s">
         <v>55</v>
       </c>
-      <c r="L34" s="29" t="s">
+      <c r="L34" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="M34" s="29"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F35" s="8"/>
@@ -20154,9 +20154,7 @@
       </c>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E69" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="E69" s="21"/>
     </row>
     <row r="71" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E71" s="17"/>
@@ -20164,29 +20162,29 @@
     <row r="72" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
       <c r="L72" s="17"/>
     </row>
     <row r="73" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C73" s="13"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C74" s="20"/>
@@ -20214,8 +20212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G77" sqref="G77"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20226,24 +20224,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -20314,11 +20312,11 @@
       <c r="J68" s="21"/>
     </row>
     <row r="69" spans="3:16" x14ac:dyDescent="0.15">
-      <c r="E69" s="33"/>
-      <c r="F69" s="33"/>
-      <c r="G69" s="33"/>
-      <c r="H69" s="33"/>
-      <c r="I69" s="33"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
     </row>
     <row r="70" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C70" s="13" t="s">
@@ -20352,11 +20350,11 @@
       <c r="I73" s="16"/>
       <c r="J73" s="16"/>
       <c r="K73" s="16"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
     </row>
     <row r="74" spans="3:16" x14ac:dyDescent="0.15">
       <c r="C74" s="20"/>
@@ -20417,38 +20415,38 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="5"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="25" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="J25" s="28" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="J25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
@@ -20461,32 +20459,32 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
@@ -20503,23 +20501,23 @@
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E59" s="30" t="s">
+      <c r="E59" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="F59" s="30"/>
+      <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E60" s="29" t="s">
+      <c r="E60" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="29"/>
-      <c r="G60" s="29"/>
-      <c r="H60" s="29"/>
-      <c r="I60" s="29"/>
-      <c r="J60" s="29"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="32"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
@@ -20528,23 +20526,23 @@
     </row>
     <row r="90" spans="6:15" x14ac:dyDescent="0.15">
       <c r="F90" s="11"/>
-      <c r="G90" s="30" t="s">
+      <c r="G90" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="30"/>
+      <c r="H90" s="33"/>
     </row>
     <row r="91" spans="6:15" x14ac:dyDescent="0.15">
-      <c r="G91" s="29" t="s">
+      <c r="G91" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="29"/>
-      <c r="I91" s="29"/>
-      <c r="J91" s="29"/>
-      <c r="K91" s="29"/>
-      <c r="L91" s="29"/>
-      <c r="M91" s="29"/>
-      <c r="N91" s="29"/>
-      <c r="O91" s="29"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
     </row>
     <row r="93" spans="6:15" x14ac:dyDescent="0.15">
       <c r="G93" s="11"/>
@@ -20608,38 +20606,38 @@
       <c r="O3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="22"/>
       <c r="E4" s="5"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="24" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="J25" s="28" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="J25" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="28"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="28"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="31"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B26" s="3"/>
@@ -20652,49 +20650,49 @@
       <c r="J26" s="11"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="24" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="J28" s="31" t="s">
+      <c r="J28" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="E53" s="11"/>
-      <c r="F53" s="30" t="s">
+      <c r="F53" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="G53" s="30"/>
+      <c r="G53" s="33"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="29"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
@@ -20715,22 +20713,22 @@
     </row>
     <row r="79" spans="6:14" x14ac:dyDescent="0.15">
       <c r="F79" s="11"/>
-      <c r="G79" s="30" t="s">
+      <c r="G79" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="H79" s="30"/>
+      <c r="H79" s="33"/>
     </row>
     <row r="80" spans="6:14" x14ac:dyDescent="0.15">
-      <c r="G80" s="26" t="s">
+      <c r="G80" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H80" s="26"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="26"/>
-      <c r="M80" s="26"/>
-      <c r="N80" s="26"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -20769,21 +20767,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -20851,21 +20849,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -20936,21 +20934,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21025,21 +21023,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21114,21 +21112,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21203,21 +21201,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21285,21 +21283,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21370,21 +21368,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21458,21 +21456,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21553,24 +21551,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -21636,21 +21634,21 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.15">
       <c r="E30" s="11" t="s">
@@ -21716,8 +21714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G70" sqref="G70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21728,24 +21726,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="28"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.15">
       <c r="E31" s="11" t="s">
@@ -21765,10 +21763,10 @@
       <c r="I32" t="s">
         <v>55</v>
       </c>
-      <c r="L32" s="29" t="s">
+      <c r="L32" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="M32" s="29"/>
+      <c r="M32" s="32"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F33" s="8"/>
@@ -21799,7 +21797,7 @@
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D63" s="41" t="s">
+      <c r="D63" s="26" t="s">
         <v>87</v>
       </c>
     </row>
@@ -21854,24 +21852,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -21950,24 +21948,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -22029,47 +22027,47 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B88" s="34"/>
-      <c r="C88" s="34"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="37"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B89" s="34"/>
-      <c r="C89" s="34"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="34"/>
-      <c r="F89" s="34"/>
-      <c r="G89" s="34"/>
-      <c r="H89" s="34"/>
+      <c r="B89" s="37"/>
+      <c r="C89" s="37"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="37"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" s="26"/>
-      <c r="B105" s="26"/>
-      <c r="C105" s="26"/>
-      <c r="D105" s="26"/>
-      <c r="E105" s="26"/>
+      <c r="A105" s="29"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -22105,24 +22103,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -22169,14 +22167,14 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35" t="s">
+      <c r="F73" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
       <c r="L73" s="16"/>
     </row>
   </sheetData>
@@ -22211,24 +22209,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -22284,15 +22282,15 @@
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
       <c r="F73" s="16"/>
-      <c r="G73" s="35" t="s">
+      <c r="G73" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22326,24 +22324,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -22403,13 +22401,13 @@
       <c r="G73" s="16"/>
       <c r="H73" s="16"/>
       <c r="I73" s="16"/>
-      <c r="J73" s="35" t="s">
+      <c r="J73" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -22444,24 +22442,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="27"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.15">
       <c r="E33" s="11" t="s">
@@ -22512,19 +22510,19 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35" t="s">
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38"/>
+      <c r="K73" s="38"/>
+      <c r="L73" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
+      <c r="M73" s="38"/>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="38"/>
       <c r="Q73" s="16"/>
     </row>
   </sheetData>
@@ -22542,12 +22540,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22709,15 +22704,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22741,17 +22747,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -19908,7 +19908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F73" sqref="F73:K73"/>
     </sheetView>
   </sheetViews>
@@ -20049,7 +20049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
@@ -20212,7 +20212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
@@ -21714,7 +21714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
@@ -22540,9 +22540,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22704,26 +22707,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22747,9 +22739,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/No6_テスト結果.xlsx
+++ b/report/No6_テスト結果.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="110">
   <si>
     <t>加入者編集ページ</t>
   </si>
@@ -1393,6 +1393,28 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>aデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bデータ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>aデータ使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bデータ使用</t>
+    <rPh sb="4" eb="6">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -19043,8 +19065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19090,7 +19112,7 @@
       </c>
       <c r="R5" s="28"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -19098,7 +19120,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="R43" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B44" s="27" t="s">
         <v>0</v>
       </c>
@@ -20049,8 +20079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20125,6 +20155,9 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F41" s="8"/>
+      <c r="G41" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="66" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E66" s="17" t="s">
@@ -20212,8 +20245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P75"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20295,6 +20328,9 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.15">
       <c r="F41" s="8"/>
+      <c r="H41" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="67" spans="3:16" x14ac:dyDescent="0.15">
       <c r="E67" s="17" t="s">
@@ -21714,8 +21750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21787,6 +21823,11 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="G37" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.15">
       <c r="F39" s="8"/>
@@ -22540,12 +22581,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22707,15 +22745,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22739,17 +22788,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>